--- a/lista3.xlsx
+++ b/lista3.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diiru/Desktop/inferenciaproyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E039C48C-9148-944D-9DC1-DCEC07B458FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFEDD79-D1D0-D646-8ED5-38CF25C9430F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="notas" sheetId="1" r:id="rId1"/>
+    <sheet name="notas3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
@@ -635,7 +635,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A53" sqref="A53"/>
+      <selection pane="topRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
